--- a/forecast_summary_B0BSNYN4XQ.xlsx
+++ b/forecast_summary_B0BSNYN4XQ.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,6 +476,11 @@
           <t>Product Title</t>
         </is>
       </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -488,7 +493,7 @@
         <v>49.56491448001288</v>
       </c>
       <c r="D2" t="n">
-        <v>83.71025407001532</v>
+        <v>81.94266743343495</v>
       </c>
       <c r="E2" t="n">
         <v>28</v>
@@ -511,6 +516,9 @@
         <is>
           <t>B760 DS3H AC DDR4</t>
         </is>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -518,13 +526,13 @@
         <v>45634</v>
       </c>
       <c r="B3" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C3" t="n">
         <v>61.45889479315629</v>
       </c>
       <c r="D3" t="n">
-        <v>95.62971699653541</v>
+        <v>91.6759101737283</v>
       </c>
       <c r="E3" t="n">
         <v>27</v>
@@ -547,6 +555,9 @@
         <is>
           <t>B760 DS3H AC DDR4</t>
         </is>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -560,7 +571,7 @@
         <v>69.72731070372807</v>
       </c>
       <c r="D4" t="n">
-        <v>101.2923723456121</v>
+        <v>102.9944064044484</v>
       </c>
       <c r="E4" t="n">
         <v>29</v>
@@ -583,6 +594,9 @@
         <is>
           <t>B760 DS3H AC DDR4</t>
         </is>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -596,7 +610,7 @@
         <v>63.78965189629472</v>
       </c>
       <c r="D5" t="n">
-        <v>93.83626622649524</v>
+        <v>96.35088597420216</v>
       </c>
       <c r="E5" t="n">
         <v>25</v>
@@ -619,6 +633,9 @@
         <is>
           <t>B760 DS3H AC DDR4</t>
         </is>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,13 +643,13 @@
         <v>45655</v>
       </c>
       <c r="B6" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" t="n">
         <v>38.13548654482746</v>
       </c>
       <c r="D6" t="n">
-        <v>72.58741962228285</v>
+        <v>69.23909630882098</v>
       </c>
       <c r="E6" t="n">
         <v>24</v>
@@ -655,6 +672,9 @@
         <is>
           <t>B760 DS3H AC DDR4</t>
         </is>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -668,7 +688,7 @@
         <v>6.422053944975459</v>
       </c>
       <c r="D7" t="n">
-        <v>38.68376619061962</v>
+        <v>38.44548085884432</v>
       </c>
       <c r="E7" t="n">
         <v>25</v>
@@ -691,6 +711,9 @@
         <is>
           <t>B760 DS3H AC DDR4</t>
         </is>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -704,7 +727,7 @@
         <v>-0.961452951225392</v>
       </c>
       <c r="D8" t="n">
-        <v>31.60916792770825</v>
+        <v>30.77233470879327</v>
       </c>
       <c r="E8" t="n">
         <v>25</v>
@@ -727,6 +750,9 @@
         <is>
           <t>B760 DS3H AC DDR4</t>
         </is>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -740,7 +766,7 @@
         <v>37.94317672843802</v>
       </c>
       <c r="D9" t="n">
-        <v>69.40132033973785</v>
+        <v>69.44590989756517</v>
       </c>
       <c r="E9" t="n">
         <v>25</v>
@@ -763,6 +789,9 @@
         <is>
           <t>B760 DS3H AC DDR4</t>
         </is>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -770,13 +799,13 @@
         <v>45683</v>
       </c>
       <c r="B10" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C10" t="n">
         <v>110.1222474691704</v>
       </c>
       <c r="D10" t="n">
-        <v>141.5289543049258</v>
+        <v>143.9460238447983</v>
       </c>
       <c r="E10" t="n">
         <v>25</v>
@@ -799,6 +828,9 @@
         <is>
           <t>B760 DS3H AC DDR4</t>
         </is>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -812,7 +844,7 @@
         <v>169.8308236250656</v>
       </c>
       <c r="D11" t="n">
-        <v>202.2690433358694</v>
+        <v>202.6609706988263</v>
       </c>
       <c r="E11" t="n">
         <v>24</v>
@@ -835,6 +867,9 @@
         <is>
           <t>B760 DS3H AC DDR4</t>
         </is>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -848,7 +883,7 @@
         <v>174.0717745845176</v>
       </c>
       <c r="D12" t="n">
-        <v>206.1935973509047</v>
+        <v>206.1279127378129</v>
       </c>
       <c r="E12" t="n">
         <v>26</v>
@@ -871,6 +906,9 @@
         <is>
           <t>B760 DS3H AC DDR4</t>
         </is>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -884,7 +922,7 @@
         <v>119.9335041937855</v>
       </c>
       <c r="D13" t="n">
-        <v>152.8759232730444</v>
+        <v>153.202802879497</v>
       </c>
       <c r="E13" t="n">
         <v>26</v>
@@ -907,6 +945,9 @@
         <is>
           <t>B760 DS3H AC DDR4</t>
         </is>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -920,7 +961,7 @@
         <v>46.81927596208634</v>
       </c>
       <c r="D14" t="n">
-        <v>77.32554361525807</v>
+        <v>79.90203805147893</v>
       </c>
       <c r="E14" t="n">
         <v>25</v>
@@ -943,6 +984,9 @@
         <is>
           <t>B760 DS3H AC DDR4</t>
         </is>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -956,7 +1000,7 @@
         <v>0.7175191827804441</v>
       </c>
       <c r="D15" t="n">
-        <v>35.35156445690166</v>
+        <v>32.16194639369935</v>
       </c>
       <c r="E15" t="n">
         <v>25</v>
@@ -979,6 +1023,9 @@
         <is>
           <t>B760 DS3H AC DDR4</t>
         </is>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -992,7 +1039,7 @@
         <v>-3.950232765841509</v>
       </c>
       <c r="D16" t="n">
-        <v>25.30300762056955</v>
+        <v>25.89270225744334</v>
       </c>
       <c r="E16" t="n">
         <v>25</v>
@@ -1015,6 +1062,9 @@
         <is>
           <t>B760 DS3H AC DDR4</t>
         </is>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1028,7 +1078,7 @@
         <v>11.48964693076273</v>
       </c>
       <c r="D17" t="n">
-        <v>45.77718185657346</v>
+        <v>43.57984522136257</v>
       </c>
       <c r="E17" t="n">
         <v>24</v>
@@ -1051,6 +1101,9 @@
         <is>
           <t>B760 DS3H AC DDR4</t>
         </is>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1064,7 +1117,7 @@
         <v>19.03762002938812</v>
       </c>
       <c r="D18" t="n">
-        <v>49.72960314991933</v>
+        <v>52.59715976756807</v>
       </c>
       <c r="E18" t="n">
         <v>23</v>
@@ -1087,6 +1140,9 @@
         <is>
           <t>B760 DS3H AC DDR4</t>
         </is>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1094,13 +1150,13 @@
         <v>45746</v>
       </c>
       <c r="B19" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C19" t="n">
         <v>12.18037488150106</v>
       </c>
       <c r="D19" t="n">
-        <v>45.74060623116359</v>
+        <v>43.95624256809273</v>
       </c>
       <c r="E19" t="n">
         <v>23</v>
@@ -1123,6 +1179,9 @@
         <is>
           <t>B760 DS3H AC DDR4</t>
         </is>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1136,7 +1195,7 @@
         <v>4.989322693723627</v>
       </c>
       <c r="D20" t="n">
-        <v>35.58514380627556</v>
+        <v>37.42221131958098</v>
       </c>
       <c r="E20" t="n">
         <v>25</v>
@@ -1159,6 +1218,9 @@
         <is>
           <t>B760 DS3H AC DDR4</t>
         </is>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1172,7 +1234,7 @@
         <v>9.330385128554129</v>
       </c>
       <c r="D21" t="n">
-        <v>43.4233370976277</v>
+        <v>45.62519977661098</v>
       </c>
       <c r="E21" t="n">
         <v>23</v>
@@ -1195,6 +1257,9 @@
         <is>
           <t>B760 DS3H AC DDR4</t>
         </is>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1320,7 +1385,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1008</t>
+          <t>1007</t>
         </is>
       </c>
     </row>
@@ -1332,7 +1397,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>351</t>
         </is>
       </c>
     </row>
@@ -1344,7 +1409,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>257</t>
         </is>
       </c>
     </row>
